--- a/Docs/Correctness Constraints.xlsx
+++ b/Docs/Correctness Constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lidor\BGU 2021 Semester B\סדנה\version 0\version 0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lidor\BGU 2021 Semester B\סדנה\version 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE70A8-AF31-404D-8834-315F2F6FF462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BD0C7-7D24-4361-A822-3EDB9ADFFAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="3330" windowWidth="17280" windowHeight="8970" xr2:uid="{3D237EBB-EFBC-4D0A-9C12-47204E4C21E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D237EBB-EFBC-4D0A-9C12-47204E4C21E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>מס"ד</t>
   </si>
@@ -85,6 +85,9 @@
 שום משתמש אחר</t>
   </si>
   <si>
+    <t>(כללי יושרה) לא ניתן לגבות כסף מקונים עבור עסקאות שלא ביצעו או בסכומים שונים מהסכומים שהוצגו.</t>
+  </si>
+  <si>
     <t>מופיע בתרשים המחלקות. לא ניתן יהיה ליצור אוביקט מסוג TradingSystem מבלי להעביר רפרנס למערכת זו</t>
   </si>
   <si>
@@ -109,41 +112,10 @@
     <t>בעת יצירת חנות חדשה, תהיה ברירת מחדל. ניתן יהיה להוסיף סוגי קניה ורכישה ולשנותם אך תהיה בדיקה בקוד שתוודא שלפחות קיימת ברירת מחדל - יש בדיקת קבלה מתאימה</t>
   </si>
   <si>
-    <t>5.a</t>
-  </si>
-  <si>
-    <t>5.b</t>
-  </si>
-  <si>
-    <t>לקונה יש עגלת הקניות יחידה, המורכבת מאוסף כל סלי הקניה שלו. לקונה יש לכל היותר
-סל קניות יחיד לחנות</t>
-  </si>
-  <si>
-    <t>סל קניות יחיד לחנות מתקיים ממבנה תרשים המחלקות (Association Class)</t>
-  </si>
-  <si>
-    <t>8.a</t>
-  </si>
-  <si>
-    <t>(כללי יושרה) לא ניתן לגבות כסף מקונים עבור עסקאות שלא ביצעו או בסכומים שונים מהסכומים שהוצגו</t>
-  </si>
-  <si>
-    <t>8.b</t>
-  </si>
-  <si>
-    <t>8.c</t>
-  </si>
-  <si>
-    <t>8.d</t>
-  </si>
-  <si>
-    <t>9.a</t>
-  </si>
-  <si>
-    <t>9.b</t>
-  </si>
-  <si>
-    <t>הקשר בין משתמש לעגלת הקניות שלו הוא פרטי למשתמש ואוביקטים אחרים לא יוכלו לגשת אליה</t>
+    <t>בכל רגע נתון יש כמות אי -שלילית של מוצרים בכל מלאי שמוגדר במערכת</t>
+  </si>
+  <si>
+    <t>v1.1.b</t>
   </si>
 </sst>
 </file>
@@ -208,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -218,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +511,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,117 +573,117 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
